--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -716,9 +716,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1106,42 +1103,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
@@ -1157,11 +1154,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -727,7 +727,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -709,13 +709,16 @@
     <t>Name: uganda-igf-resources</t>
   </si>
   <si>
-    <t>Description: Ugandan Locally Raised Revenues</t>
+    <t>Description: Locally Raised Revenues</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Uganda budget information - Ministry of Finance, Planning and Economic Development</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.budget.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -733,7 +736,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1103,42 +1109,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
@@ -1154,6 +1160,16 @@
     <row r="17">
       <c r="A17" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -709,13 +709,13 @@
     <t>Name: uganda-igf-resources</t>
   </si>
   <si>
-    <t>Description: Locally Raised Revenues</t>
+    <t>Description: Locally raised revenues</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Uganda budget information - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Uganda budget information â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -745,7 +745,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,337 +34,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -743,22 +1079,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +1102,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -774,62 +1110,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1203,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
@@ -880,9 +1218,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="n">
         <v>2015</v>
       </c>
@@ -891,9 +1231,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4"/>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
@@ -906,9 +1248,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="n">
         <v>2015</v>
       </c>
@@ -921,9 +1265,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
@@ -936,9 +1282,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7"/>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" t="n">
         <v>2015</v>
       </c>
@@ -951,9 +1299,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
@@ -962,9 +1312,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="n">
         <v>2015</v>
       </c>
@@ -977,9 +1329,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
@@ -992,9 +1346,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11"/>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="n">
         <v>2015</v>
       </c>
@@ -1007,9 +1363,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12"/>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
@@ -1022,9 +1380,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13"/>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="n">
         <v>2015</v>
       </c>
@@ -1037,9 +1397,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
@@ -1052,9 +1414,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15"/>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" t="n">
         <v>2015</v>
       </c>
@@ -1067,9 +1431,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
@@ -1078,9 +1444,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17"/>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" t="n">
         <v>2015</v>
       </c>
@@ -1093,9 +1461,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18"/>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
@@ -1108,9 +1478,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" t="n">
         <v>2015</v>
       </c>
@@ -1123,9 +1495,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20"/>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
@@ -1138,9 +1512,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21"/>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" t="n">
         <v>2015</v>
       </c>
@@ -1153,9 +1529,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22"/>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
@@ -1168,9 +1546,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23"/>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="n">
         <v>2015</v>
       </c>
@@ -1183,9 +1563,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24"/>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
@@ -1198,9 +1580,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25"/>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" t="n">
         <v>2015</v>
       </c>
@@ -1213,9 +1597,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
@@ -1228,9 +1614,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27"/>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" t="n">
         <v>2015</v>
       </c>
@@ -1243,9 +1631,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28"/>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
@@ -1258,9 +1648,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29"/>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" t="n">
         <v>2015</v>
       </c>
@@ -1273,9 +1665,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30"/>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
@@ -1288,9 +1682,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31"/>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
       <c r="C31" t="n">
         <v>2015</v>
       </c>
@@ -1303,9 +1699,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32"/>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
@@ -1318,9 +1716,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33"/>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" t="n">
         <v>2015</v>
       </c>
@@ -1333,9 +1733,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34"/>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
@@ -1348,9 +1750,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35"/>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" t="n">
         <v>2015</v>
       </c>
@@ -1363,9 +1767,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36"/>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
@@ -1378,9 +1784,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37"/>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" t="n">
         <v>2015</v>
       </c>
@@ -1393,9 +1801,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38"/>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
@@ -1408,9 +1818,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39"/>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" t="n">
         <v>2015</v>
       </c>
@@ -1423,9 +1835,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40"/>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
@@ -1438,9 +1852,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41"/>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" t="n">
         <v>2015</v>
       </c>
@@ -1453,9 +1869,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42"/>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
@@ -1468,9 +1886,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43"/>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" t="n">
         <v>2015</v>
       </c>
@@ -1483,9 +1903,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44"/>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
@@ -1498,9 +1920,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45"/>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" t="n">
         <v>2015</v>
       </c>
@@ -1513,9 +1937,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46"/>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
@@ -1528,9 +1954,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47"/>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
       <c r="C47" t="n">
         <v>2015</v>
       </c>
@@ -1543,9 +1971,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48"/>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
@@ -1558,9 +1988,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49"/>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" t="n">
         <v>2015</v>
       </c>
@@ -1573,9 +2005,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50"/>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
@@ -1588,9 +2022,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51"/>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
       <c r="C51" t="n">
         <v>2015</v>
       </c>
@@ -1603,9 +2039,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52"/>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
@@ -1618,9 +2056,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53"/>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" t="n">
         <v>2015</v>
       </c>
@@ -1633,9 +2073,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
@@ -1644,9 +2086,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55"/>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" t="n">
         <v>2015</v>
       </c>
@@ -1659,9 +2103,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56"/>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
@@ -1674,9 +2120,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57"/>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" t="n">
         <v>2015</v>
       </c>
@@ -1689,9 +2137,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58"/>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
@@ -1704,9 +2154,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59"/>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" t="n">
         <v>2015</v>
       </c>
@@ -1719,9 +2171,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
@@ -1734,9 +2188,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61"/>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
       <c r="C61" t="n">
         <v>2015</v>
       </c>
@@ -1749,9 +2205,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62"/>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
@@ -1764,9 +2222,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63"/>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" t="n">
         <v>2015</v>
       </c>
@@ -1779,9 +2239,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64"/>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
@@ -1794,9 +2256,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" t="n">
         <v>2015</v>
       </c>
@@ -1809,9 +2273,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66"/>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
@@ -1824,9 +2290,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67"/>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
       <c r="C67" t="n">
         <v>2015</v>
       </c>
@@ -1839,9 +2307,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68"/>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
@@ -1854,9 +2324,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69"/>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
       <c r="C69" t="n">
         <v>2015</v>
       </c>
@@ -1869,9 +2341,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70"/>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
@@ -1884,9 +2358,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71"/>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" t="n">
         <v>2015</v>
       </c>
@@ -1899,9 +2375,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72"/>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
@@ -1914,9 +2392,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73"/>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
       <c r="C73" t="n">
         <v>2015</v>
       </c>
@@ -1929,9 +2409,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74"/>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
@@ -1944,9 +2426,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75"/>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
       <c r="C75" t="n">
         <v>2015</v>
       </c>
@@ -1959,9 +2443,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76"/>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
@@ -1974,9 +2460,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77"/>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
       <c r="C77" t="n">
         <v>2015</v>
       </c>
@@ -1989,9 +2477,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78"/>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
@@ -2004,9 +2494,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79"/>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
       <c r="C79" t="n">
         <v>2015</v>
       </c>
@@ -2019,9 +2511,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80"/>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
@@ -2034,9 +2528,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81"/>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
       <c r="C81" t="n">
         <v>2015</v>
       </c>
@@ -2049,9 +2545,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82"/>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
@@ -2064,9 +2562,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83"/>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
       <c r="C83" t="n">
         <v>2015</v>
       </c>
@@ -2079,9 +2579,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84"/>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
@@ -2094,9 +2596,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>2015</v>
       </c>
@@ -2109,9 +2613,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86"/>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
@@ -2124,9 +2630,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87"/>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
       <c r="C87" t="n">
         <v>2015</v>
       </c>
@@ -2139,9 +2647,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88"/>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
@@ -2154,9 +2664,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89"/>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
       <c r="C89" t="n">
         <v>2015</v>
       </c>
@@ -2169,9 +2681,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90"/>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
@@ -2184,9 +2698,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91"/>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
       <c r="C91" t="n">
         <v>2015</v>
       </c>
@@ -2199,9 +2715,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92"/>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
@@ -2214,9 +2732,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93"/>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
       <c r="C93" t="n">
         <v>2015</v>
       </c>
@@ -2229,9 +2749,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94"/>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
@@ -2244,9 +2766,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95"/>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
       <c r="C95" t="n">
         <v>2015</v>
       </c>
@@ -2259,9 +2783,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96"/>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
@@ -2274,9 +2800,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97"/>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
       <c r="C97" t="n">
         <v>2015</v>
       </c>
@@ -2289,9 +2817,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98"/>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
@@ -2304,9 +2834,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99"/>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
       <c r="C99" t="n">
         <v>2015</v>
       </c>
@@ -2319,9 +2851,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100"/>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
@@ -2334,9 +2868,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101"/>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
       <c r="C101" t="n">
         <v>2015</v>
       </c>
@@ -2349,9 +2885,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102"/>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
@@ -2364,9 +2902,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103"/>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
       <c r="C103" t="n">
         <v>2015</v>
       </c>
@@ -2379,9 +2919,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104"/>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
@@ -2394,9 +2936,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105"/>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" t="n">
         <v>2015</v>
       </c>
@@ -2409,9 +2953,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106"/>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
@@ -2424,9 +2970,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107"/>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" t="n">
         <v>2015</v>
       </c>
@@ -2439,9 +2987,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108"/>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
@@ -2454,9 +3004,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109"/>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
       <c r="C109" t="n">
         <v>2015</v>
       </c>
@@ -2469,9 +3021,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110"/>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
@@ -2484,9 +3038,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111"/>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" t="n">
         <v>2015</v>
       </c>
@@ -2499,9 +3055,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112"/>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
@@ -2514,9 +3072,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113"/>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
       <c r="C113" t="n">
         <v>2015</v>
       </c>
@@ -2546,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -2559,13 +3119,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>265939.320823379</v>
@@ -2573,7 +3133,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>112851.446209495</v>
@@ -2581,7 +3141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>630653.147258049</v>
@@ -2589,7 +3149,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>309191.581865428</v>
@@ -2597,13 +3157,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>776127.086595945</v>
@@ -2611,7 +3171,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>160311.268284699</v>
@@ -2619,7 +3179,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>588288.695784757</v>
@@ -2627,7 +3187,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>148759.98774174</v>
@@ -2635,7 +3195,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>225065.195036436</v>
@@ -2643,7 +3203,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
         <v>863351.789868687</v>
@@ -2651,7 +3211,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>181836.880905832</v>
@@ -2659,13 +3219,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>405949.521020344</v>
@@ -2673,7 +3233,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>1378548.89474649</v>
@@ -2681,7 +3241,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
         <v>31004.4505810106</v>
@@ -2689,7 +3249,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>45327.6600339513</v>
@@ -2697,7 +3257,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>106397.31011374</v>
@@ -2705,7 +3265,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>154661.571028968</v>
@@ -2713,7 +3273,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
         <v>171872.304976766</v>
@@ -2721,7 +3281,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n">
         <v>145049.990313054</v>
@@ -2729,7 +3289,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
         <v>204483.563751649</v>
@@ -2737,7 +3297,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
         <v>164123.261817688</v>
@@ -2745,7 +3305,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
         <v>403596.51524021</v>
@@ -2753,7 +3313,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B28" t="n">
         <v>243652.137290118</v>
@@ -2761,7 +3321,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
         <v>2385375.20466786</v>
@@ -2769,7 +3329,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>352962.988296336</v>
@@ -2777,7 +3337,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>85402.6685167468</v>
@@ -2785,7 +3345,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>205037.299123705</v>
@@ -2793,7 +3353,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
         <v>87403.2703654929</v>
@@ -2801,7 +3361,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>1144081.72837951</v>
@@ -2809,7 +3369,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B35" t="n">
         <v>206161.917038975</v>
@@ -2817,7 +3377,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B36" t="n">
         <v>173349.918105188</v>
@@ -2825,7 +3385,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>345193.545916397</v>
@@ -2833,7 +3393,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
         <v>138546.186549117</v>
@@ -2841,7 +3401,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B39" t="n">
         <v>204442.765309928</v>
@@ -2849,7 +3409,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B40" t="n">
         <v>258208.016117222</v>
@@ -2857,7 +3417,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" t="n">
         <v>152650.030467586</v>
@@ -2865,7 +3425,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>79243.5820212648</v>
@@ -2873,7 +3433,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
         <v>93380.24207764</v>
@@ -2881,7 +3441,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B44" t="n">
         <v>258513.708789249</v>
@@ -2889,7 +3449,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B45" t="n">
         <v>61709.4169485174</v>
@@ -2897,7 +3457,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B46" t="n">
         <v>118242.457693445</v>
@@ -2905,7 +3465,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
         <v>101276.810036855</v>
@@ -2913,7 +3473,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
         <v>159720.282161507</v>
@@ -2921,7 +3481,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B49" t="n">
         <v>96977.6003302693</v>
@@ -2929,7 +3489,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B50" t="n">
         <v>43183.9679982992</v>
@@ -2937,7 +3497,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B51" t="n">
         <v>86349.0149801481</v>
@@ -2945,7 +3505,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B52" t="n">
         <v>35446.1591927382</v>
@@ -2953,7 +3513,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B53" t="n">
         <v>81175.8908262602</v>
@@ -2961,13 +3521,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B55" t="n">
         <v>141672.293235779</v>
@@ -2975,7 +3535,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B56" t="n">
         <v>168375.464624029</v>
@@ -2983,7 +3543,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B57" t="n">
         <v>222570.281632924</v>
@@ -2991,7 +3551,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B58" t="n">
         <v>114455.889276312</v>
@@ -2999,7 +3559,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
         <v>127421.220158055</v>
@@ -3007,7 +3567,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B60" t="n">
         <v>553847.419950063</v>
@@ -3015,7 +3575,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B61" t="n">
         <v>994216.043738948</v>
@@ -3023,7 +3583,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B62" t="n">
         <v>366851.3100118</v>
@@ -3031,7 +3591,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B63" t="n">
         <v>39317.8721838981</v>
@@ -3039,7 +3599,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
         <v>622058.866817226</v>
@@ -3047,7 +3607,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B65" t="n">
         <v>165280.991511746</v>
@@ -3055,7 +3615,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B66" t="n">
         <v>261698.056729672</v>
@@ -3063,7 +3623,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B67" t="n">
         <v>504013.010310336</v>
@@ -3071,7 +3631,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B68" t="n">
         <v>128059.213181492</v>
@@ -3079,7 +3639,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B69" t="n">
         <v>203147.858246605</v>
@@ -3087,7 +3647,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B70" t="n">
         <v>152557.79051239</v>
@@ -3095,7 +3655,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
         <v>116678.81306835</v>
@@ -3103,7 +3663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B72" t="n">
         <v>117074.380568515</v>
@@ -3111,7 +3671,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B73" t="n">
         <v>129209.847494381</v>
@@ -3119,7 +3679,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B74" t="n">
         <v>31924.7806467926</v>
@@ -3127,7 +3687,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B75" t="n">
         <v>100331.054855218</v>
@@ -3135,7 +3695,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B76" t="n">
         <v>360837.087548516</v>
@@ -3143,7 +3703,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B77" t="n">
         <v>72385.3048397646</v>
@@ -3151,7 +3711,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B78" t="n">
         <v>304687.493027591</v>
@@ -3159,7 +3719,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B79" t="n">
         <v>135462.652149468</v>
@@ -3167,7 +3727,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B80" t="n">
         <v>171916.651109072</v>
@@ -3175,7 +3735,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>33868.9150870695</v>
@@ -3183,7 +3743,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B82" t="n">
         <v>134443.578029086</v>
@@ -3191,7 +3751,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B83" t="n">
         <v>65040.9940481952</v>
@@ -3199,7 +3759,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B84" t="n">
         <v>97016.9205675802</v>
@@ -3207,7 +3767,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>196096.823210016</v>
@@ -3215,7 +3775,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B86" t="n">
         <v>37052.6717457287</v>
@@ -3223,7 +3783,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B87" t="n">
         <v>242606.455490353</v>
@@ -3231,7 +3791,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B88" t="n">
         <v>55087.6524726471</v>
@@ -3239,7 +3799,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B89" t="n">
         <v>239478.870599281</v>
@@ -3247,7 +3807,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B90" t="n">
         <v>677961.60120165</v>
@@ -3255,7 +3815,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B91" t="n">
         <v>772268.677444477</v>
@@ -3263,7 +3823,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B92" t="n">
         <v>764237.001602171</v>
@@ -3271,7 +3831,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>424226.631629651</v>
@@ -3279,7 +3839,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>478340.443036867</v>
@@ -3287,7 +3847,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>337980.20403557</v>
@@ -3295,7 +3855,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>366285.45336358</v>
@@ -3303,7 +3863,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>1057845.6482163</v>
@@ -3311,7 +3871,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>235586.167105496</v>
@@ -3319,7 +3879,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>209274.719885945</v>
@@ -3327,7 +3887,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B100" t="n">
         <v>149258.142627973</v>
@@ -3335,7 +3895,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>267219.4458426</v>
@@ -3343,7 +3903,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B102" t="n">
         <v>286792.94171964</v>
@@ -3351,7 +3911,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B103" t="n">
         <v>152062.000753214</v>
@@ -3359,7 +3919,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B104" t="n">
         <v>284439.04901686</v>
@@ -3367,7 +3927,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B105" t="n">
         <v>280541.615268963</v>
@@ -3375,7 +3935,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B106" t="n">
         <v>398260.197319437</v>
@@ -3383,7 +3943,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B107" t="n">
         <v>60215.5435715832</v>
@@ -3391,7 +3951,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B108" t="n">
         <v>328537.138622418</v>
@@ -3399,7 +3959,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B109" t="n">
         <v>196809.022094844</v>
@@ -3407,7 +3967,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B110" t="n">
         <v>115654.417412091</v>
@@ -3415,7 +3975,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B111" t="n">
         <v>105878.460365765</v>
@@ -3423,7 +3983,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B112" t="n">
         <v>75167.8768214992</v>
@@ -3431,7 +3991,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>145327.597101287</v>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -31,36 +31,498 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -79,28 +541,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -109,598 +691,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -1210,10 +1210,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>200164.841746849</v>
+        <v>116678.81306835</v>
       </c>
       <c r="E2" t="n">
-        <v>677054000</v>
+        <v>394664000</v>
       </c>
     </row>
     <row r="3">
@@ -1226,8 +1226,12 @@
       <c r="C3" t="n">
         <v>2015</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="n">
+        <v>114455.889276312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>387145000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1240,10 +1244,10 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>265939.320823379</v>
+        <v>135462.652149468</v>
       </c>
       <c r="E4" t="n">
-        <v>899535000</v>
+        <v>458200000</v>
       </c>
     </row>
     <row r="5">
@@ -1257,10 +1261,10 @@
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>112851.446209495</v>
+        <v>171916.651109072</v>
       </c>
       <c r="E5" t="n">
-        <v>381718000</v>
+        <v>581505000</v>
       </c>
     </row>
     <row r="6">
@@ -1274,10 +1278,10 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>630653.147258049</v>
+        <v>117074.380568515</v>
       </c>
       <c r="E6" t="n">
-        <v>2133173000</v>
+        <v>396002000</v>
       </c>
     </row>
     <row r="7">
@@ -1291,10 +1295,10 @@
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>309191.581865428</v>
+        <v>33868.9150870695</v>
       </c>
       <c r="E7" t="n">
-        <v>1045835000</v>
+        <v>114561000</v>
       </c>
     </row>
     <row r="8">
@@ -1307,8 +1311,12 @@
       <c r="C8" t="n">
         <v>2015</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" t="n">
+        <v>152650.030467586</v>
+      </c>
+      <c r="E8" t="n">
+        <v>516336000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1321,10 +1329,10 @@
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>776127.086595945</v>
+        <v>129209.847494381</v>
       </c>
       <c r="E9" t="n">
-        <v>2625236000</v>
+        <v>437050000</v>
       </c>
     </row>
     <row r="10">
@@ -1338,10 +1346,10 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>160311.268284699</v>
+        <v>127421.220158055</v>
       </c>
       <c r="E10" t="n">
-        <v>542250000</v>
+        <v>431000000</v>
       </c>
     </row>
     <row r="11">
@@ -1355,10 +1363,10 @@
         <v>2015</v>
       </c>
       <c r="D11" t="n">
-        <v>588288.695784757</v>
+        <v>553847.419950063</v>
       </c>
       <c r="E11" t="n">
-        <v>1989876000</v>
+        <v>1873379000</v>
       </c>
     </row>
     <row r="12">
@@ -1372,10 +1380,10 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>148759.98774174</v>
+        <v>79243.5820212648</v>
       </c>
       <c r="E12" t="n">
-        <v>503178000</v>
+        <v>268040000</v>
       </c>
     </row>
     <row r="13">
@@ -1389,10 +1397,10 @@
         <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>225065.195036436</v>
+        <v>93380.24207764</v>
       </c>
       <c r="E13" t="n">
-        <v>761279000</v>
+        <v>315857000</v>
       </c>
     </row>
     <row r="14">
@@ -1406,10 +1414,10 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>863351.789868687</v>
+        <v>164123.261817688</v>
       </c>
       <c r="E14" t="n">
-        <v>2920272000</v>
+        <v>555144000</v>
       </c>
     </row>
     <row r="15">
@@ -1423,10 +1431,10 @@
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>181836.880905832</v>
+        <v>60215.5435715832</v>
       </c>
       <c r="E15" t="n">
-        <v>615060000</v>
+        <v>203678000</v>
       </c>
     </row>
     <row r="16">
@@ -1439,8 +1447,12 @@
       <c r="C16" t="n">
         <v>2015</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" t="n">
+        <v>1378548.89474649</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4662917000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1453,10 +1465,10 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>405949.521020344</v>
+        <v>258513.708789249</v>
       </c>
       <c r="E17" t="n">
-        <v>1373117000</v>
+        <v>874418000</v>
       </c>
     </row>
     <row r="18">
@@ -1470,10 +1482,10 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>1378548.89474649</v>
+        <v>31004.4505810106</v>
       </c>
       <c r="E18" t="n">
-        <v>4662917000</v>
+        <v>104872000</v>
       </c>
     </row>
     <row r="19">
@@ -1487,10 +1499,10 @@
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>31004.4505810106</v>
+        <v>61709.4169485174</v>
       </c>
       <c r="E19" t="n">
-        <v>104872000</v>
+        <v>208731000</v>
       </c>
     </row>
     <row r="20">
@@ -1504,10 +1516,10 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>45327.6600339513</v>
+        <v>43183.9679982992</v>
       </c>
       <c r="E20" t="n">
-        <v>153320000</v>
+        <v>146069000</v>
       </c>
     </row>
     <row r="21">
@@ -1521,10 +1533,10 @@
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>106397.31011374</v>
+        <v>152062.000753214</v>
       </c>
       <c r="E21" t="n">
-        <v>359887000</v>
+        <v>514347000</v>
       </c>
     </row>
     <row r="22">
@@ -1538,10 +1550,10 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>154661.571028968</v>
+        <v>55087.6524726471</v>
       </c>
       <c r="E22" t="n">
-        <v>523140000</v>
+        <v>186333000</v>
       </c>
     </row>
     <row r="23">
@@ -1555,10 +1567,10 @@
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>171872.304976766</v>
+        <v>239478.870599281</v>
       </c>
       <c r="E23" t="n">
-        <v>581355000</v>
+        <v>810033000</v>
       </c>
     </row>
     <row r="24">
@@ -1572,10 +1584,10 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>145049.990313054</v>
+        <v>403596.51524021</v>
       </c>
       <c r="E24" t="n">
-        <v>490629000</v>
+        <v>1365158000</v>
       </c>
     </row>
     <row r="25">
@@ -1589,10 +1601,10 @@
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>204483.563751649</v>
+        <v>118242.457693445</v>
       </c>
       <c r="E25" t="n">
-        <v>691662000</v>
+        <v>399953000</v>
       </c>
     </row>
     <row r="26">
@@ -1606,10 +1618,10 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>164123.261817688</v>
+        <v>45327.6600339513</v>
       </c>
       <c r="E26" t="n">
-        <v>555144000</v>
+        <v>153320000</v>
       </c>
     </row>
     <row r="27">
@@ -1623,10 +1635,10 @@
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>403596.51524021</v>
+        <v>106397.31011374</v>
       </c>
       <c r="E27" t="n">
-        <v>1365158000</v>
+        <v>359887000</v>
       </c>
     </row>
     <row r="28">
@@ -1640,10 +1652,10 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>243652.137290118</v>
+        <v>86349.0149801481</v>
       </c>
       <c r="E28" t="n">
-        <v>824149000</v>
+        <v>292074000</v>
       </c>
     </row>
     <row r="29">
@@ -1657,10 +1669,10 @@
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>2385375.20466786</v>
+        <v>31924.7806467926</v>
       </c>
       <c r="E29" t="n">
-        <v>8068489000</v>
+        <v>107985000</v>
       </c>
     </row>
     <row r="30">
@@ -1674,10 +1686,10 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>352962.988296336</v>
+        <v>154661.571028968</v>
       </c>
       <c r="E30" t="n">
-        <v>1193891000</v>
+        <v>523140000</v>
       </c>
     </row>
     <row r="31">
@@ -1691,10 +1703,10 @@
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>85402.6685167468</v>
+        <v>994216.043738948</v>
       </c>
       <c r="E31" t="n">
-        <v>288873000</v>
+        <v>3362918000</v>
       </c>
     </row>
     <row r="32">
@@ -1708,10 +1720,10 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>205037.299123705</v>
+        <v>677961.60120165</v>
       </c>
       <c r="E32" t="n">
-        <v>693535000</v>
+        <v>2293193000</v>
       </c>
     </row>
     <row r="33">
@@ -1725,10 +1737,10 @@
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>87403.2703654929</v>
+        <v>284439.04901686</v>
       </c>
       <c r="E33" t="n">
-        <v>295640000</v>
+        <v>962110000</v>
       </c>
     </row>
     <row r="34">
@@ -1742,10 +1754,10 @@
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>1144081.72837951</v>
+        <v>243652.137290118</v>
       </c>
       <c r="E34" t="n">
-        <v>3869836000</v>
+        <v>824149000</v>
       </c>
     </row>
     <row r="35">
@@ -1759,10 +1771,10 @@
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>206161.917038975</v>
+        <v>280541.615268963</v>
       </c>
       <c r="E35" t="n">
-        <v>697339000</v>
+        <v>948927000</v>
       </c>
     </row>
     <row r="36">
@@ -1776,10 +1788,10 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>173349.918105188</v>
+        <v>2385375.20466786</v>
       </c>
       <c r="E36" t="n">
-        <v>586353000</v>
+        <v>8068489000</v>
       </c>
     </row>
     <row r="37">
@@ -1793,10 +1805,10 @@
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>345193.545916397</v>
+        <v>100331.054855218</v>
       </c>
       <c r="E37" t="n">
-        <v>1167611000</v>
+        <v>339368000</v>
       </c>
     </row>
     <row r="38">
@@ -1810,10 +1822,10 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>138546.186549117</v>
+        <v>772268.677444477</v>
       </c>
       <c r="E38" t="n">
-        <v>468630000</v>
+        <v>2612185000</v>
       </c>
     </row>
     <row r="39">
@@ -1827,10 +1839,10 @@
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>204442.765309928</v>
+        <v>764237.001602171</v>
       </c>
       <c r="E39" t="n">
-        <v>691524000</v>
+        <v>2585018000</v>
       </c>
     </row>
     <row r="40">
@@ -1844,10 +1856,10 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>258208.016117222</v>
+        <v>138546.186549117</v>
       </c>
       <c r="E40" t="n">
-        <v>873384000</v>
+        <v>468630000</v>
       </c>
     </row>
     <row r="41">
@@ -1861,10 +1873,10 @@
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>152650.030467586</v>
+        <v>200164.841746849</v>
       </c>
       <c r="E41" t="n">
-        <v>516336000</v>
+        <v>677054000</v>
       </c>
     </row>
     <row r="42">
@@ -1878,10 +1890,10 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>79243.5820212648</v>
+        <v>101276.810036855</v>
       </c>
       <c r="E42" t="n">
-        <v>268040000</v>
+        <v>342567000</v>
       </c>
     </row>
     <row r="43">
@@ -1895,10 +1907,10 @@
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>93380.24207764</v>
+        <v>171872.304976766</v>
       </c>
       <c r="E43" t="n">
-        <v>315857000</v>
+        <v>581355000</v>
       </c>
     </row>
     <row r="44">
@@ -1911,12 +1923,8 @@
       <c r="C44" t="n">
         <v>2015</v>
       </c>
-      <c r="D44" t="n">
-        <v>258513.708789249</v>
-      </c>
-      <c r="E44" t="n">
-        <v>874418000</v>
-      </c>
+      <c r="D44"/>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1929,10 +1937,10 @@
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>61709.4169485174</v>
+        <v>352962.988296336</v>
       </c>
       <c r="E45" t="n">
-        <v>208731000</v>
+        <v>1193891000</v>
       </c>
     </row>
     <row r="46">
@@ -1946,10 +1954,10 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>118242.457693445</v>
+        <v>149258.142627973</v>
       </c>
       <c r="E46" t="n">
-        <v>399953000</v>
+        <v>504863000</v>
       </c>
     </row>
     <row r="47">
@@ -1963,10 +1971,10 @@
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>101276.810036855</v>
+        <v>267219.4458426</v>
       </c>
       <c r="E47" t="n">
-        <v>342567000</v>
+        <v>903865000</v>
       </c>
     </row>
     <row r="48">
@@ -1980,10 +1988,10 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>159720.282161507</v>
+        <v>85402.6685167468</v>
       </c>
       <c r="E48" t="n">
-        <v>540251000</v>
+        <v>288873000</v>
       </c>
     </row>
     <row r="49">
@@ -1997,10 +2005,10 @@
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>96977.6003302693</v>
+        <v>424226.631629651</v>
       </c>
       <c r="E49" t="n">
-        <v>328025000</v>
+        <v>1434939000</v>
       </c>
     </row>
     <row r="50">
@@ -2014,10 +2022,10 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>43183.9679982992</v>
+        <v>205037.299123705</v>
       </c>
       <c r="E50" t="n">
-        <v>146069000</v>
+        <v>693535000</v>
       </c>
     </row>
     <row r="51">
@@ -2031,10 +2039,10 @@
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>86349.0149801481</v>
+        <v>225065.195036436</v>
       </c>
       <c r="E51" t="n">
-        <v>292074000</v>
+        <v>761279000</v>
       </c>
     </row>
     <row r="52">
@@ -2048,10 +2056,10 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>35446.1591927382</v>
+        <v>478340.443036867</v>
       </c>
       <c r="E52" t="n">
-        <v>119896000</v>
+        <v>1617978000</v>
       </c>
     </row>
     <row r="53">
@@ -2065,10 +2073,10 @@
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>81175.8908262602</v>
+        <v>265939.320823379</v>
       </c>
       <c r="E53" t="n">
-        <v>274576000</v>
+        <v>899535000</v>
       </c>
     </row>
     <row r="54">
@@ -2081,8 +2089,12 @@
       <c r="C54" t="n">
         <v>2015</v>
       </c>
-      <c r="D54"/>
-      <c r="E54"/>
+      <c r="D54" t="n">
+        <v>35446.1591927382</v>
+      </c>
+      <c r="E54" t="n">
+        <v>119896000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2095,10 +2107,10 @@
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>141672.293235779</v>
+        <v>398260.197319437</v>
       </c>
       <c r="E55" t="n">
-        <v>479204000</v>
+        <v>1347108000</v>
       </c>
     </row>
     <row r="56">
@@ -2112,10 +2124,10 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>168375.464624029</v>
+        <v>328537.138622418</v>
       </c>
       <c r="E56" t="n">
-        <v>569527000</v>
+        <v>1111271000</v>
       </c>
     </row>
     <row r="57">
@@ -2129,10 +2141,10 @@
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>222570.281632924</v>
+        <v>337980.20403557</v>
       </c>
       <c r="E57" t="n">
-        <v>752840000</v>
+        <v>1143212000</v>
       </c>
     </row>
     <row r="58">
@@ -2146,10 +2158,10 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>114455.889276312</v>
+        <v>366851.3100118</v>
       </c>
       <c r="E58" t="n">
-        <v>387145000</v>
+        <v>1240868000</v>
       </c>
     </row>
     <row r="59">
@@ -2163,10 +2175,10 @@
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>127421.220158055</v>
+        <v>360837.087548516</v>
       </c>
       <c r="E59" t="n">
-        <v>431000000</v>
+        <v>1220525000</v>
       </c>
     </row>
     <row r="60">
@@ -2180,10 +2192,10 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>553847.419950063</v>
+        <v>134443.578029086</v>
       </c>
       <c r="E60" t="n">
-        <v>1873379000</v>
+        <v>454753000</v>
       </c>
     </row>
     <row r="61">
@@ -2197,10 +2209,10 @@
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>994216.043738948</v>
+        <v>39317.8721838981</v>
       </c>
       <c r="E61" t="n">
-        <v>3362918000</v>
+        <v>132992000</v>
       </c>
     </row>
     <row r="62">
@@ -2214,10 +2226,10 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>366851.3100118</v>
+        <v>87403.2703654929</v>
       </c>
       <c r="E62" t="n">
-        <v>1240868000</v>
+        <v>295640000</v>
       </c>
     </row>
     <row r="63">
@@ -2231,10 +2243,10 @@
         <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>39317.8721838981</v>
+        <v>81175.8908262602</v>
       </c>
       <c r="E63" t="n">
-        <v>132992000</v>
+        <v>274576000</v>
       </c>
     </row>
     <row r="64">
@@ -2248,10 +2260,10 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>622058.866817226</v>
+        <v>145049.990313054</v>
       </c>
       <c r="E64" t="n">
-        <v>2104103000</v>
+        <v>490629000</v>
       </c>
     </row>
     <row r="65">
@@ -2265,10 +2277,10 @@
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>165280.991511746</v>
+        <v>196809.022094844</v>
       </c>
       <c r="E65" t="n">
-        <v>559060000</v>
+        <v>665703000</v>
       </c>
     </row>
     <row r="66">
@@ -2282,10 +2294,10 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>261698.056729672</v>
+        <v>286792.94171964</v>
       </c>
       <c r="E66" t="n">
-        <v>885189000</v>
+        <v>970072000</v>
       </c>
     </row>
     <row r="67">
@@ -2299,10 +2311,10 @@
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>504013.010310336</v>
+        <v>65040.9940481952</v>
       </c>
       <c r="E67" t="n">
-        <v>1704815000</v>
+        <v>220000000</v>
       </c>
     </row>
     <row r="68">
@@ -2316,10 +2328,10 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>128059.213181492</v>
+        <v>622058.866817226</v>
       </c>
       <c r="E68" t="n">
-        <v>433158000</v>
+        <v>2104103000</v>
       </c>
     </row>
     <row r="69">
@@ -2332,12 +2344,8 @@
       <c r="C69" t="n">
         <v>2015</v>
       </c>
-      <c r="D69" t="n">
-        <v>203147.858246605</v>
-      </c>
-      <c r="E69" t="n">
-        <v>687144000</v>
-      </c>
+      <c r="D69"/>
+      <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -2350,10 +2358,10 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>152557.79051239</v>
+        <v>112851.446209495</v>
       </c>
       <c r="E70" t="n">
-        <v>516024000</v>
+        <v>381718000</v>
       </c>
     </row>
     <row r="71">
@@ -2367,10 +2375,10 @@
         <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>116678.81306835</v>
+        <v>204483.563751649</v>
       </c>
       <c r="E71" t="n">
-        <v>394664000</v>
+        <v>691662000</v>
       </c>
     </row>
     <row r="72">
@@ -2384,10 +2392,10 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>117074.380568515</v>
+        <v>181836.880905832</v>
       </c>
       <c r="E72" t="n">
-        <v>396002000</v>
+        <v>615060000</v>
       </c>
     </row>
     <row r="73">
@@ -2401,10 +2409,10 @@
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>129209.847494381</v>
+        <v>159720.282161507</v>
       </c>
       <c r="E73" t="n">
-        <v>437050000</v>
+        <v>540251000</v>
       </c>
     </row>
     <row r="74">
@@ -2418,10 +2426,10 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>31924.7806467926</v>
+        <v>72385.3048397646</v>
       </c>
       <c r="E74" t="n">
-        <v>107985000</v>
+        <v>244842000</v>
       </c>
     </row>
     <row r="75">
@@ -2435,10 +2443,10 @@
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>100331.054855218</v>
+        <v>630653.147258049</v>
       </c>
       <c r="E75" t="n">
-        <v>339368000</v>
+        <v>2133173000</v>
       </c>
     </row>
     <row r="76">
@@ -2452,10 +2460,10 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>360837.087548516</v>
+        <v>366285.45336358</v>
       </c>
       <c r="E76" t="n">
-        <v>1220525000</v>
+        <v>1238954000</v>
       </c>
     </row>
     <row r="77">
@@ -2469,10 +2477,10 @@
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>72385.3048397646</v>
+        <v>204442.765309928</v>
       </c>
       <c r="E77" t="n">
-        <v>244842000</v>
+        <v>691524000</v>
       </c>
     </row>
     <row r="78">
@@ -2486,10 +2494,10 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>304687.493027591</v>
+        <v>1144081.72837951</v>
       </c>
       <c r="E78" t="n">
-        <v>1030600000</v>
+        <v>3869836000</v>
       </c>
     </row>
     <row r="79">
@@ -2503,10 +2511,10 @@
         <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>135462.652149468</v>
+        <v>1057845.6482163</v>
       </c>
       <c r="E79" t="n">
-        <v>458200000</v>
+        <v>3578144000</v>
       </c>
     </row>
     <row r="80">
@@ -2520,10 +2528,10 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>171916.651109072</v>
+        <v>115654.417412091</v>
       </c>
       <c r="E80" t="n">
-        <v>581505000</v>
+        <v>391199000</v>
       </c>
     </row>
     <row r="81">
@@ -2536,12 +2544,8 @@
       <c r="C81" t="n">
         <v>2015</v>
       </c>
-      <c r="D81" t="n">
-        <v>33868.9150870695</v>
-      </c>
-      <c r="E81" t="n">
-        <v>114561000</v>
-      </c>
+      <c r="D81"/>
+      <c r="E81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -2554,10 +2558,10 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>134443.578029086</v>
+        <v>165280.991511746</v>
       </c>
       <c r="E82" t="n">
-        <v>454753000</v>
+        <v>559060000</v>
       </c>
     </row>
     <row r="83">
@@ -2571,10 +2575,10 @@
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>65040.9940481952</v>
+        <v>261698.056729672</v>
       </c>
       <c r="E83" t="n">
-        <v>220000000</v>
+        <v>885189000</v>
       </c>
     </row>
     <row r="84">
@@ -2588,10 +2592,10 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>97016.9205675802</v>
+        <v>309191.581865428</v>
       </c>
       <c r="E84" t="n">
-        <v>328158000</v>
+        <v>1045835000</v>
       </c>
     </row>
     <row r="85">
@@ -2604,12 +2608,8 @@
       <c r="C85" t="n">
         <v>2015</v>
       </c>
-      <c r="D85" t="n">
-        <v>196096.823210016</v>
-      </c>
-      <c r="E85" t="n">
-        <v>663294000</v>
-      </c>
+      <c r="D85"/>
+      <c r="E85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -2622,10 +2622,10 @@
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>37052.6717457287</v>
+        <v>776127.086595945</v>
       </c>
       <c r="E86" t="n">
-        <v>125330000</v>
+        <v>2625236000</v>
       </c>
     </row>
     <row r="87">
@@ -2639,10 +2639,10 @@
         <v>2015</v>
       </c>
       <c r="D87" t="n">
-        <v>242606.455490353</v>
+        <v>128059.213181492</v>
       </c>
       <c r="E87" t="n">
-        <v>820612000</v>
+        <v>433158000</v>
       </c>
     </row>
     <row r="88">
@@ -2656,10 +2656,10 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>55087.6524726471</v>
+        <v>405949.521020344</v>
       </c>
       <c r="E88" t="n">
-        <v>186333000</v>
+        <v>1373117000</v>
       </c>
     </row>
     <row r="89">
@@ -2673,10 +2673,10 @@
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>239478.870599281</v>
+        <v>160311.268284699</v>
       </c>
       <c r="E89" t="n">
-        <v>810033000</v>
+        <v>542250000</v>
       </c>
     </row>
     <row r="90">
@@ -2690,10 +2690,10 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>677961.60120165</v>
+        <v>141672.293235779</v>
       </c>
       <c r="E90" t="n">
-        <v>2293193000</v>
+        <v>479204000</v>
       </c>
     </row>
     <row r="91">
@@ -2707,10 +2707,10 @@
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>772268.677444477</v>
+        <v>96977.6003302693</v>
       </c>
       <c r="E91" t="n">
-        <v>2612185000</v>
+        <v>328025000</v>
       </c>
     </row>
     <row r="92">
@@ -2724,10 +2724,10 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>764237.001602171</v>
+        <v>97016.9205675802</v>
       </c>
       <c r="E92" t="n">
-        <v>2585018000</v>
+        <v>328158000</v>
       </c>
     </row>
     <row r="93">
@@ -2741,10 +2741,10 @@
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>424226.631629651</v>
+        <v>504013.010310336</v>
       </c>
       <c r="E93" t="n">
-        <v>1434939000</v>
+        <v>1704815000</v>
       </c>
     </row>
     <row r="94">
@@ -2758,10 +2758,10 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>478340.443036867</v>
+        <v>168375.464624029</v>
       </c>
       <c r="E94" t="n">
-        <v>1617978000</v>
+        <v>569527000</v>
       </c>
     </row>
     <row r="95">
@@ -2775,10 +2775,10 @@
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>337980.20403557</v>
+        <v>105878.460365765</v>
       </c>
       <c r="E95" t="n">
-        <v>1143212000</v>
+        <v>358132000</v>
       </c>
     </row>
     <row r="96">
@@ -2792,10 +2792,10 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>366285.45336358</v>
+        <v>235586.167105496</v>
       </c>
       <c r="E96" t="n">
-        <v>1238954000</v>
+        <v>796866000</v>
       </c>
     </row>
     <row r="97">
@@ -2809,10 +2809,10 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>1057845.6482163</v>
+        <v>196096.823210016</v>
       </c>
       <c r="E97" t="n">
-        <v>3578144000</v>
+        <v>663294000</v>
       </c>
     </row>
     <row r="98">
@@ -2826,10 +2826,10 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>235586.167105496</v>
+        <v>37052.6717457287</v>
       </c>
       <c r="E98" t="n">
-        <v>796866000</v>
+        <v>125330000</v>
       </c>
     </row>
     <row r="99">
@@ -2843,10 +2843,10 @@
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>209274.719885945</v>
+        <v>304687.493027591</v>
       </c>
       <c r="E99" t="n">
-        <v>707868000</v>
+        <v>1030600000</v>
       </c>
     </row>
     <row r="100">
@@ -2860,10 +2860,10 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>149258.142627973</v>
+        <v>203147.858246605</v>
       </c>
       <c r="E100" t="n">
-        <v>504863000</v>
+        <v>687144000</v>
       </c>
     </row>
     <row r="101">
@@ -2877,10 +2877,10 @@
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>267219.4458426</v>
+        <v>206161.917038975</v>
       </c>
       <c r="E101" t="n">
-        <v>903865000</v>
+        <v>697339000</v>
       </c>
     </row>
     <row r="102">
@@ -2894,10 +2894,10 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>286792.94171964</v>
+        <v>588288.695784757</v>
       </c>
       <c r="E102" t="n">
-        <v>970072000</v>
+        <v>1989876000</v>
       </c>
     </row>
     <row r="103">
@@ -2911,10 +2911,10 @@
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>152062.000753214</v>
+        <v>75167.8768214992</v>
       </c>
       <c r="E103" t="n">
-        <v>514347000</v>
+        <v>254254000</v>
       </c>
     </row>
     <row r="104">
@@ -2928,10 +2928,10 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>284439.04901686</v>
+        <v>209274.719885945</v>
       </c>
       <c r="E104" t="n">
-        <v>962110000</v>
+        <v>707868000</v>
       </c>
     </row>
     <row r="105">
@@ -2945,10 +2945,10 @@
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>280541.615268963</v>
+        <v>222570.281632924</v>
       </c>
       <c r="E105" t="n">
-        <v>948927000</v>
+        <v>752840000</v>
       </c>
     </row>
     <row r="106">
@@ -2962,10 +2962,10 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>398260.197319437</v>
+        <v>145327.597101287</v>
       </c>
       <c r="E106" t="n">
-        <v>1347108000</v>
+        <v>491568000</v>
       </c>
     </row>
     <row r="107">
@@ -2979,10 +2979,10 @@
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>60215.5435715832</v>
+        <v>258208.016117222</v>
       </c>
       <c r="E107" t="n">
-        <v>203678000</v>
+        <v>873384000</v>
       </c>
     </row>
     <row r="108">
@@ -2996,10 +2996,10 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>328537.138622418</v>
+        <v>173349.918105188</v>
       </c>
       <c r="E108" t="n">
-        <v>1111271000</v>
+        <v>586353000</v>
       </c>
     </row>
     <row r="109">
@@ -3013,10 +3013,10 @@
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>196809.022094844</v>
+        <v>148759.98774174</v>
       </c>
       <c r="E109" t="n">
-        <v>665703000</v>
+        <v>503178000</v>
       </c>
     </row>
     <row r="110">
@@ -3030,10 +3030,10 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>115654.417412091</v>
+        <v>345193.545916397</v>
       </c>
       <c r="E110" t="n">
-        <v>391199000</v>
+        <v>1167611000</v>
       </c>
     </row>
     <row r="111">
@@ -3047,10 +3047,10 @@
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>105878.460365765</v>
+        <v>863351.789868687</v>
       </c>
       <c r="E111" t="n">
-        <v>358132000</v>
+        <v>2920272000</v>
       </c>
     </row>
     <row r="112">
@@ -3064,10 +3064,10 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>75167.8768214992</v>
+        <v>152557.79051239</v>
       </c>
       <c r="E112" t="n">
-        <v>254254000</v>
+        <v>516024000</v>
       </c>
     </row>
     <row r="113">
@@ -3081,10 +3081,10 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>145327.597101287</v>
+        <v>242606.455490353</v>
       </c>
       <c r="E113" t="n">
-        <v>491568000</v>
+        <v>820612000</v>
       </c>
     </row>
   </sheetData>
@@ -3106,6 +3106,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3113,888 +3116,1224 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>200164.841746849</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>116678.81306835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>114455.889276312</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>265939.320823379</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>135462.652149468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>112851.446209495</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>171916.651109072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>630653.147258049</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>117074.380568515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>309191.581865428</v>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33868.9150870695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>152650.030467586</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="n">
-        <v>776127.086595945</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>129209.847494381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>160311.268284699</v>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>127421.220158055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="n">
-        <v>588288.695784757</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>553847.419950063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="n">
-        <v>148759.98774174</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>79243.5820212648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="n">
-        <v>225065.195036436</v>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>93380.24207764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="n">
-        <v>863351.789868687</v>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>164123.261817688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="n">
-        <v>181836.880905832</v>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>60215.5435715832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1378548.89474649</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>405949.521020344</v>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>258513.708789249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="n">
-        <v>1378548.89474649</v>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31004.4505810106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="n">
-        <v>31004.4505810106</v>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61709.4169485174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="n">
-        <v>45327.6600339513</v>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>43183.9679982992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="n">
-        <v>106397.31011374</v>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>152062.000753214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="n">
-        <v>154661.571028968</v>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55087.6524726471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>171872.304976766</v>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>239478.870599281</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="n">
-        <v>145049.990313054</v>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>403596.51524021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="n">
-        <v>204483.563751649</v>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>118242.457693445</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="n">
-        <v>164123.261817688</v>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45327.6600339513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="n">
-        <v>403596.51524021</v>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>106397.31011374</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="n">
-        <v>243652.137290118</v>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>86349.0149801481</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="n">
-        <v>2385375.20466786</v>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31924.7806467926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="n">
-        <v>352962.988296336</v>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>154661.571028968</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="n">
-        <v>85402.6685167468</v>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>994216.043738948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="n">
-        <v>205037.299123705</v>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>677961.60120165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="n">
-        <v>87403.2703654929</v>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>284439.04901686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="n">
-        <v>1144081.72837951</v>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>243652.137290118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="n">
-        <v>206161.917038975</v>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>280541.615268963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="n">
-        <v>173349.918105188</v>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2385375.20466786</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="n">
-        <v>345193.545916397</v>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100331.054855218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="n">
-        <v>138546.186549117</v>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>772268.677444477</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="n">
-        <v>204442.765309928</v>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>764237.001602171</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="n">
-        <v>258208.016117222</v>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>138546.186549117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="n">
-        <v>152650.030467586</v>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>200164.841746849</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="n">
-        <v>79243.5820212648</v>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>101276.810036855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="n">
-        <v>93380.24207764</v>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>171872.304976766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="n">
-        <v>258513.708789249</v>
-      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="n">
-        <v>61709.4169485174</v>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>352962.988296336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="n">
-        <v>118242.457693445</v>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>149258.142627973</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="n">
-        <v>101276.810036855</v>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>267219.4458426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="n">
-        <v>159720.282161507</v>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>85402.6685167468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="n">
-        <v>96977.6003302693</v>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>424226.631629651</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="n">
-        <v>43183.9679982992</v>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>205037.299123705</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="n">
-        <v>86349.0149801481</v>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>225065.195036436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="n">
-        <v>35446.1591927382</v>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>478340.443036867</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="n">
-        <v>81175.8908262602</v>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>265939.320823379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>35446.1591927382</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="n">
-        <v>141672.293235779</v>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>398260.197319437</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="n">
-        <v>168375.464624029</v>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="n">
+        <v>328537.138622418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="n">
-        <v>222570.281632924</v>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>337980.20403557</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="n">
-        <v>114455.889276312</v>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>366851.3100118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="n">
-        <v>127421.220158055</v>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>360837.087548516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="n">
-        <v>553847.419950063</v>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v>134443.578029086</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="n">
-        <v>994216.043738948</v>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39317.8721838981</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="n">
-        <v>366851.3100118</v>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>87403.2703654929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="n">
-        <v>39317.8721838981</v>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>81175.8908262602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="n">
-        <v>622058.866817226</v>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>145049.990313054</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="n">
-        <v>165280.991511746</v>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>196809.022094844</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="n">
-        <v>261698.056729672</v>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>286792.94171964</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="n">
-        <v>504013.010310336</v>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65040.9940481952</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="n">
-        <v>128059.213181492</v>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="n">
+        <v>622058.866817226</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="n">
-        <v>203147.858246605</v>
-      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="n">
-        <v>152557.79051239</v>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n">
+        <v>112851.446209495</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="n">
-        <v>116678.81306835</v>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>204483.563751649</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="n">
-        <v>117074.380568515</v>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="n">
+        <v>181836.880905832</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="n">
-        <v>129209.847494381</v>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="n">
+        <v>159720.282161507</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="n">
-        <v>31924.7806467926</v>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72385.3048397646</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="n">
-        <v>100331.054855218</v>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="n">
+        <v>630653.147258049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="n">
-        <v>360837.087548516</v>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="n">
+        <v>366285.45336358</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="n">
-        <v>72385.3048397646</v>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="n">
+        <v>204442.765309928</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="n">
-        <v>304687.493027591</v>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1144081.72837951</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="n">
-        <v>135462.652149468</v>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1057845.6482163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="n">
-        <v>171916.651109072</v>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="n">
+        <v>115654.417412091</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="n">
-        <v>33868.9150870695</v>
-      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="n">
-        <v>134443.578029086</v>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="n">
+        <v>165280.991511746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="n">
-        <v>65040.9940481952</v>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>261698.056729672</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="n">
-        <v>97016.9205675802</v>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="n">
+        <v>309191.581865428</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="n">
-        <v>196096.823210016</v>
-      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="n">
-        <v>37052.6717457287</v>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>776127.086595945</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="n">
-        <v>242606.455490353</v>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>128059.213181492</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="n">
-        <v>55087.6524726471</v>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="n">
+        <v>405949.521020344</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="n">
-        <v>239478.870599281</v>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="n">
+        <v>160311.268284699</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="n">
-        <v>677961.60120165</v>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>141672.293235779</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="n">
-        <v>772268.677444477</v>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>96977.6003302693</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="n">
-        <v>764237.001602171</v>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>97016.9205675802</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="n">
-        <v>424226.631629651</v>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>504013.010310336</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="n">
-        <v>478340.443036867</v>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>168375.464624029</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="n">
-        <v>337980.20403557</v>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>105878.460365765</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="n">
-        <v>366285.45336358</v>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>235586.167105496</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="n">
-        <v>1057845.6482163</v>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>196096.823210016</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="n">
-        <v>235586.167105496</v>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="n">
+        <v>37052.6717457287</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="n">
-        <v>209274.719885945</v>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="n">
+        <v>304687.493027591</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="n">
-        <v>149258.142627973</v>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>203147.858246605</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="n">
-        <v>267219.4458426</v>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="n">
+        <v>206161.917038975</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="n">
-        <v>286792.94171964</v>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>588288.695784757</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="n">
-        <v>152062.000753214</v>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v>75167.8768214992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="n">
-        <v>284439.04901686</v>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="n">
+        <v>209274.719885945</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="n">
-        <v>280541.615268963</v>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>222570.281632924</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="n">
-        <v>398260.197319437</v>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>145327.597101287</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="n">
-        <v>60215.5435715832</v>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>258208.016117222</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="n">
-        <v>328537.138622418</v>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>173349.918105188</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="n">
-        <v>196809.022094844</v>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="n">
+        <v>148759.98774174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="n">
-        <v>115654.417412091</v>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>345193.545916397</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="n">
-        <v>105878.460365765</v>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>863351.789868687</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="n">
-        <v>75167.8768214992</v>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="n">
+        <v>152557.79051239</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="n">
-        <v>145327.597101287</v>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>242606.455490353</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,340 +31,676 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -743,22 +1079,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +1102,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -774,62 +1110,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -867,1664 +1203,1888 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>200164.841746849</v>
+        <v>116678.81306835</v>
       </c>
       <c r="E2" t="n">
-        <v>677054000</v>
+        <v>394664000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="n">
         <v>2015</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="n">
+        <v>114455.889276312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>387145000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4"/>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>265939.320823379</v>
+        <v>135462.652149468</v>
       </c>
       <c r="E4" t="n">
-        <v>899535000</v>
+        <v>458200000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="n">
         <v>2015</v>
       </c>
       <c r="D5" t="n">
-        <v>112851.446209495</v>
+        <v>171916.651109072</v>
       </c>
       <c r="E5" t="n">
-        <v>381718000</v>
+        <v>581505000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>630653.147258049</v>
+        <v>117074.380568515</v>
       </c>
       <c r="E6" t="n">
-        <v>2133173000</v>
+        <v>396002000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7"/>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" t="n">
         <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>309191.581865428</v>
+        <v>33868.9150870695</v>
       </c>
       <c r="E7" t="n">
-        <v>1045835000</v>
+        <v>114561000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" t="n">
+        <v>152650.030467586</v>
+      </c>
+      <c r="E8" t="n">
+        <v>516336000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9"/>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" t="n">
         <v>2015</v>
       </c>
       <c r="D9" t="n">
-        <v>776127.086595945</v>
+        <v>129209.847494381</v>
       </c>
       <c r="E9" t="n">
-        <v>2625236000</v>
+        <v>437050000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>160311.268284699</v>
+        <v>127421.220158055</v>
       </c>
       <c r="E10" t="n">
-        <v>542250000</v>
+        <v>431000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11"/>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="n">
         <v>2015</v>
       </c>
       <c r="D11" t="n">
-        <v>588288.695784757</v>
+        <v>553847.419950063</v>
       </c>
       <c r="E11" t="n">
-        <v>1989876000</v>
+        <v>1873379000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12"/>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>148759.98774174</v>
+        <v>79243.5820212648</v>
       </c>
       <c r="E12" t="n">
-        <v>503178000</v>
+        <v>268040000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13"/>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" t="n">
         <v>2015</v>
       </c>
       <c r="D13" t="n">
-        <v>225065.195036436</v>
+        <v>93380.24207764</v>
       </c>
       <c r="E13" t="n">
-        <v>761279000</v>
+        <v>315857000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>863351.789868687</v>
+        <v>164123.261817688</v>
       </c>
       <c r="E14" t="n">
-        <v>2920272000</v>
+        <v>555144000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15"/>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" t="n">
         <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>181836.880905832</v>
+        <v>60215.5435715832</v>
       </c>
       <c r="E15" t="n">
-        <v>615060000</v>
+        <v>203678000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16" t="n">
+        <v>1378548.89474649</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4662917000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17"/>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" t="n">
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>405949.521020344</v>
+        <v>258513.708789249</v>
       </c>
       <c r="E17" t="n">
-        <v>1373117000</v>
+        <v>874418000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18"/>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>1378548.89474649</v>
+        <v>31004.4505810106</v>
       </c>
       <c r="E18" t="n">
-        <v>4662917000</v>
+        <v>104872000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" t="n">
         <v>2015</v>
       </c>
       <c r="D19" t="n">
-        <v>31004.4505810106</v>
+        <v>61709.4169485174</v>
       </c>
       <c r="E19" t="n">
-        <v>104872000</v>
+        <v>208731000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20"/>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>45327.6600339513</v>
+        <v>43183.9679982992</v>
       </c>
       <c r="E20" t="n">
-        <v>153320000</v>
+        <v>146069000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21"/>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" t="n">
         <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>106397.31011374</v>
+        <v>152062.000753214</v>
       </c>
       <c r="E21" t="n">
-        <v>359887000</v>
+        <v>514347000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22"/>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>154661.571028968</v>
+        <v>55087.6524726471</v>
       </c>
       <c r="E22" t="n">
-        <v>523140000</v>
+        <v>186333000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23"/>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="n">
         <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>171872.304976766</v>
+        <v>239478.870599281</v>
       </c>
       <c r="E23" t="n">
-        <v>581355000</v>
+        <v>810033000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24"/>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>145049.990313054</v>
+        <v>403596.51524021</v>
       </c>
       <c r="E24" t="n">
-        <v>490629000</v>
+        <v>1365158000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25"/>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" t="n">
         <v>2015</v>
       </c>
       <c r="D25" t="n">
-        <v>204483.563751649</v>
+        <v>118242.457693445</v>
       </c>
       <c r="E25" t="n">
-        <v>691662000</v>
+        <v>399953000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>164123.261817688</v>
+        <v>45327.6600339513</v>
       </c>
       <c r="E26" t="n">
-        <v>555144000</v>
+        <v>153320000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27"/>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" t="n">
         <v>2015</v>
       </c>
       <c r="D27" t="n">
-        <v>403596.51524021</v>
+        <v>106397.31011374</v>
       </c>
       <c r="E27" t="n">
-        <v>1365158000</v>
+        <v>359887000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28"/>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>243652.137290118</v>
+        <v>86349.0149801481</v>
       </c>
       <c r="E28" t="n">
-        <v>824149000</v>
+        <v>292074000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29"/>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" t="n">
         <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>2385375.20466786</v>
+        <v>31924.7806467926</v>
       </c>
       <c r="E29" t="n">
-        <v>8068489000</v>
+        <v>107985000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30"/>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>352962.988296336</v>
+        <v>154661.571028968</v>
       </c>
       <c r="E30" t="n">
-        <v>1193891000</v>
+        <v>523140000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31"/>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
       <c r="C31" t="n">
         <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>85402.6685167468</v>
+        <v>994216.043738948</v>
       </c>
       <c r="E31" t="n">
-        <v>288873000</v>
+        <v>3362918000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32"/>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>205037.299123705</v>
+        <v>677961.60120165</v>
       </c>
       <c r="E32" t="n">
-        <v>693535000</v>
+        <v>2293193000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33"/>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" t="n">
         <v>2015</v>
       </c>
       <c r="D33" t="n">
-        <v>87403.2703654929</v>
+        <v>284439.04901686</v>
       </c>
       <c r="E33" t="n">
-        <v>295640000</v>
+        <v>962110000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34"/>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
       <c r="D34" t="n">
-        <v>1144081.72837951</v>
+        <v>243652.137290118</v>
       </c>
       <c r="E34" t="n">
-        <v>3869836000</v>
+        <v>824149000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35"/>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" t="n">
         <v>2015</v>
       </c>
       <c r="D35" t="n">
-        <v>206161.917038975</v>
+        <v>280541.615268963</v>
       </c>
       <c r="E35" t="n">
-        <v>697339000</v>
+        <v>948927000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36"/>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>173349.918105188</v>
+        <v>2385375.20466786</v>
       </c>
       <c r="E36" t="n">
-        <v>586353000</v>
+        <v>8068489000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37"/>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" t="n">
         <v>2015</v>
       </c>
       <c r="D37" t="n">
-        <v>345193.545916397</v>
+        <v>100331.054855218</v>
       </c>
       <c r="E37" t="n">
-        <v>1167611000</v>
+        <v>339368000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38"/>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>138546.186549117</v>
+        <v>772268.677444477</v>
       </c>
       <c r="E38" t="n">
-        <v>468630000</v>
+        <v>2612185000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39"/>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" t="n">
         <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>204442.765309928</v>
+        <v>764237.001602171</v>
       </c>
       <c r="E39" t="n">
-        <v>691524000</v>
+        <v>2585018000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40"/>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>258208.016117222</v>
+        <v>138546.186549117</v>
       </c>
       <c r="E40" t="n">
-        <v>873384000</v>
+        <v>468630000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41"/>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" t="n">
         <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>152650.030467586</v>
+        <v>200164.841746849</v>
       </c>
       <c r="E41" t="n">
-        <v>516336000</v>
+        <v>677054000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42"/>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>79243.5820212648</v>
+        <v>101276.810036855</v>
       </c>
       <c r="E42" t="n">
-        <v>268040000</v>
+        <v>342567000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43"/>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" t="n">
         <v>2015</v>
       </c>
       <c r="D43" t="n">
-        <v>93380.24207764</v>
+        <v>171872.304976766</v>
       </c>
       <c r="E43" t="n">
-        <v>315857000</v>
+        <v>581355000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44"/>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
-      <c r="D44" t="n">
-        <v>258513.708789249</v>
-      </c>
-      <c r="E44" t="n">
-        <v>874418000</v>
-      </c>
+      <c r="D44"/>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45"/>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" t="n">
         <v>2015</v>
       </c>
       <c r="D45" t="n">
-        <v>61709.4169485174</v>
+        <v>352962.988296336</v>
       </c>
       <c r="E45" t="n">
-        <v>208731000</v>
+        <v>1193891000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46"/>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>118242.457693445</v>
+        <v>149258.142627973</v>
       </c>
       <c r="E46" t="n">
-        <v>399953000</v>
+        <v>504863000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47"/>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
       <c r="C47" t="n">
         <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>101276.810036855</v>
+        <v>267219.4458426</v>
       </c>
       <c r="E47" t="n">
-        <v>342567000</v>
+        <v>903865000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48"/>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>159720.282161507</v>
+        <v>85402.6685167468</v>
       </c>
       <c r="E48" t="n">
-        <v>540251000</v>
+        <v>288873000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49"/>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" t="n">
         <v>2015</v>
       </c>
       <c r="D49" t="n">
-        <v>96977.6003302693</v>
+        <v>424226.631629651</v>
       </c>
       <c r="E49" t="n">
-        <v>328025000</v>
+        <v>1434939000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50"/>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>43183.9679982992</v>
+        <v>205037.299123705</v>
       </c>
       <c r="E50" t="n">
-        <v>146069000</v>
+        <v>693535000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51"/>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
       <c r="C51" t="n">
         <v>2015</v>
       </c>
       <c r="D51" t="n">
-        <v>86349.0149801481</v>
+        <v>225065.195036436</v>
       </c>
       <c r="E51" t="n">
-        <v>292074000</v>
+        <v>761279000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52"/>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>35446.1591927382</v>
+        <v>478340.443036867</v>
       </c>
       <c r="E52" t="n">
-        <v>119896000</v>
+        <v>1617978000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53"/>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" t="n">
         <v>2015</v>
       </c>
       <c r="D53" t="n">
-        <v>81175.8908262602</v>
+        <v>265939.320823379</v>
       </c>
       <c r="E53" t="n">
-        <v>274576000</v>
+        <v>899535000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
-      <c r="D54"/>
-      <c r="E54"/>
+      <c r="D54" t="n">
+        <v>35446.1591927382</v>
+      </c>
+      <c r="E54" t="n">
+        <v>119896000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55"/>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" t="n">
         <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>141672.293235779</v>
+        <v>398260.197319437</v>
       </c>
       <c r="E55" t="n">
-        <v>479204000</v>
+        <v>1347108000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56"/>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>168375.464624029</v>
+        <v>328537.138622418</v>
       </c>
       <c r="E56" t="n">
-        <v>569527000</v>
+        <v>1111271000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57"/>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" t="n">
         <v>2015</v>
       </c>
       <c r="D57" t="n">
-        <v>222570.281632924</v>
+        <v>337980.20403557</v>
       </c>
       <c r="E57" t="n">
-        <v>752840000</v>
+        <v>1143212000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58"/>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>114455.889276312</v>
+        <v>366851.3100118</v>
       </c>
       <c r="E58" t="n">
-        <v>387145000</v>
+        <v>1240868000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59"/>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" t="n">
         <v>2015</v>
       </c>
       <c r="D59" t="n">
-        <v>127421.220158055</v>
+        <v>360837.087548516</v>
       </c>
       <c r="E59" t="n">
-        <v>431000000</v>
+        <v>1220525000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>553847.419950063</v>
+        <v>134443.578029086</v>
       </c>
       <c r="E60" t="n">
-        <v>1873379000</v>
+        <v>454753000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61"/>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
       <c r="C61" t="n">
         <v>2015</v>
       </c>
       <c r="D61" t="n">
-        <v>994216.043738948</v>
+        <v>39317.8721838981</v>
       </c>
       <c r="E61" t="n">
-        <v>3362918000</v>
+        <v>132992000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62"/>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>366851.3100118</v>
+        <v>87403.2703654929</v>
       </c>
       <c r="E62" t="n">
-        <v>1240868000</v>
+        <v>295640000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63"/>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" t="n">
         <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>39317.8721838981</v>
+        <v>81175.8908262602</v>
       </c>
       <c r="E63" t="n">
-        <v>132992000</v>
+        <v>274576000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64"/>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>622058.866817226</v>
+        <v>145049.990313054</v>
       </c>
       <c r="E64" t="n">
-        <v>2104103000</v>
+        <v>490629000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" t="n">
         <v>2015</v>
       </c>
       <c r="D65" t="n">
-        <v>165280.991511746</v>
+        <v>196809.022094844</v>
       </c>
       <c r="E65" t="n">
-        <v>559060000</v>
+        <v>665703000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66"/>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>261698.056729672</v>
+        <v>286792.94171964</v>
       </c>
       <c r="E66" t="n">
-        <v>885189000</v>
+        <v>970072000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67"/>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
       <c r="C67" t="n">
         <v>2015</v>
       </c>
       <c r="D67" t="n">
-        <v>504013.010310336</v>
+        <v>65040.9940481952</v>
       </c>
       <c r="E67" t="n">
-        <v>1704815000</v>
+        <v>220000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68"/>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>128059.213181492</v>
+        <v>622058.866817226</v>
       </c>
       <c r="E68" t="n">
-        <v>433158000</v>
+        <v>2104103000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69"/>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
       <c r="C69" t="n">
         <v>2015</v>
       </c>
-      <c r="D69" t="n">
-        <v>203147.858246605</v>
-      </c>
-      <c r="E69" t="n">
-        <v>687144000</v>
-      </c>
+      <c r="D69"/>
+      <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70"/>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>152557.79051239</v>
+        <v>112851.446209495</v>
       </c>
       <c r="E70" t="n">
-        <v>516024000</v>
+        <v>381718000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71"/>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" t="n">
         <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>116678.81306835</v>
+        <v>204483.563751649</v>
       </c>
       <c r="E71" t="n">
-        <v>394664000</v>
+        <v>691662000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72"/>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>117074.380568515</v>
+        <v>181836.880905832</v>
       </c>
       <c r="E72" t="n">
-        <v>396002000</v>
+        <v>615060000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73"/>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
       <c r="C73" t="n">
         <v>2015</v>
       </c>
       <c r="D73" t="n">
-        <v>129209.847494381</v>
+        <v>159720.282161507</v>
       </c>
       <c r="E73" t="n">
-        <v>437050000</v>
+        <v>540251000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74"/>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>31924.7806467926</v>
+        <v>72385.3048397646</v>
       </c>
       <c r="E74" t="n">
-        <v>107985000</v>
+        <v>244842000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75"/>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
       <c r="C75" t="n">
         <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>100331.054855218</v>
+        <v>630653.147258049</v>
       </c>
       <c r="E75" t="n">
-        <v>339368000</v>
+        <v>2133173000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76"/>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>360837.087548516</v>
+        <v>366285.45336358</v>
       </c>
       <c r="E76" t="n">
-        <v>1220525000</v>
+        <v>1238954000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77"/>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
       <c r="C77" t="n">
         <v>2015</v>
       </c>
       <c r="D77" t="n">
-        <v>72385.3048397646</v>
+        <v>204442.765309928</v>
       </c>
       <c r="E77" t="n">
-        <v>244842000</v>
+        <v>691524000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78"/>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>304687.493027591</v>
+        <v>1144081.72837951</v>
       </c>
       <c r="E78" t="n">
-        <v>1030600000</v>
+        <v>3869836000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79"/>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
       <c r="C79" t="n">
         <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>135462.652149468</v>
+        <v>1057845.6482163</v>
       </c>
       <c r="E79" t="n">
-        <v>458200000</v>
+        <v>3578144000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80"/>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>171916.651109072</v>
+        <v>115654.417412091</v>
       </c>
       <c r="E80" t="n">
-        <v>581505000</v>
+        <v>391199000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81"/>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
       <c r="C81" t="n">
         <v>2015</v>
       </c>
-      <c r="D81" t="n">
-        <v>33868.9150870695</v>
-      </c>
-      <c r="E81" t="n">
-        <v>114561000</v>
-      </c>
+      <c r="D81"/>
+      <c r="E81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82"/>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>134443.578029086</v>
+        <v>165280.991511746</v>
       </c>
       <c r="E82" t="n">
-        <v>454753000</v>
+        <v>559060000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83"/>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
       <c r="C83" t="n">
         <v>2015</v>
       </c>
       <c r="D83" t="n">
-        <v>65040.9940481952</v>
+        <v>261698.056729672</v>
       </c>
       <c r="E83" t="n">
-        <v>220000000</v>
+        <v>885189000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84"/>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>97016.9205675802</v>
+        <v>309191.581865428</v>
       </c>
       <c r="E84" t="n">
-        <v>328158000</v>
+        <v>1045835000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>2015</v>
       </c>
-      <c r="D85" t="n">
-        <v>196096.823210016</v>
-      </c>
-      <c r="E85" t="n">
-        <v>663294000</v>
-      </c>
+      <c r="D85"/>
+      <c r="E85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86"/>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
       <c r="D86" t="n">
-        <v>37052.6717457287</v>
+        <v>776127.086595945</v>
       </c>
       <c r="E86" t="n">
-        <v>125330000</v>
+        <v>2625236000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87"/>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
       <c r="C87" t="n">
         <v>2015</v>
       </c>
       <c r="D87" t="n">
-        <v>242606.455490353</v>
+        <v>128059.213181492</v>
       </c>
       <c r="E87" t="n">
-        <v>820612000</v>
+        <v>433158000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88"/>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>55087.6524726471</v>
+        <v>405949.521020344</v>
       </c>
       <c r="E88" t="n">
-        <v>186333000</v>
+        <v>1373117000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89"/>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
       <c r="C89" t="n">
         <v>2015</v>
       </c>
       <c r="D89" t="n">
-        <v>239478.870599281</v>
+        <v>160311.268284699</v>
       </c>
       <c r="E89" t="n">
-        <v>810033000</v>
+        <v>542250000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90"/>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>677961.60120165</v>
+        <v>141672.293235779</v>
       </c>
       <c r="E90" t="n">
-        <v>2293193000</v>
+        <v>479204000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91"/>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
       <c r="C91" t="n">
         <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>772268.677444477</v>
+        <v>96977.6003302693</v>
       </c>
       <c r="E91" t="n">
-        <v>2612185000</v>
+        <v>328025000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92"/>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>764237.001602171</v>
+        <v>97016.9205675802</v>
       </c>
       <c r="E92" t="n">
-        <v>2585018000</v>
+        <v>328158000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93"/>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
       <c r="C93" t="n">
         <v>2015</v>
       </c>
       <c r="D93" t="n">
-        <v>424226.631629651</v>
+        <v>504013.010310336</v>
       </c>
       <c r="E93" t="n">
-        <v>1434939000</v>
+        <v>1704815000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94"/>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>478340.443036867</v>
+        <v>168375.464624029</v>
       </c>
       <c r="E94" t="n">
-        <v>1617978000</v>
+        <v>569527000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95"/>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
       <c r="C95" t="n">
         <v>2015</v>
       </c>
       <c r="D95" t="n">
-        <v>337980.20403557</v>
+        <v>105878.460365765</v>
       </c>
       <c r="E95" t="n">
-        <v>1143212000</v>
+        <v>358132000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96"/>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>366285.45336358</v>
+        <v>235586.167105496</v>
       </c>
       <c r="E96" t="n">
-        <v>1238954000</v>
+        <v>796866000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97"/>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
       <c r="C97" t="n">
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>1057845.6482163</v>
+        <v>196096.823210016</v>
       </c>
       <c r="E97" t="n">
-        <v>3578144000</v>
+        <v>663294000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98"/>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>235586.167105496</v>
+        <v>37052.6717457287</v>
       </c>
       <c r="E98" t="n">
-        <v>796866000</v>
+        <v>125330000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99"/>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
       <c r="C99" t="n">
         <v>2015</v>
       </c>
       <c r="D99" t="n">
-        <v>209274.719885945</v>
+        <v>304687.493027591</v>
       </c>
       <c r="E99" t="n">
-        <v>707868000</v>
+        <v>1030600000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100"/>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>149258.142627973</v>
+        <v>203147.858246605</v>
       </c>
       <c r="E100" t="n">
-        <v>504863000</v>
+        <v>687144000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101"/>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
       <c r="C101" t="n">
         <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>267219.4458426</v>
+        <v>206161.917038975</v>
       </c>
       <c r="E101" t="n">
-        <v>903865000</v>
+        <v>697339000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102"/>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>286792.94171964</v>
+        <v>588288.695784757</v>
       </c>
       <c r="E102" t="n">
-        <v>970072000</v>
+        <v>1989876000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103"/>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
       <c r="C103" t="n">
         <v>2015</v>
       </c>
       <c r="D103" t="n">
-        <v>152062.000753214</v>
+        <v>75167.8768214992</v>
       </c>
       <c r="E103" t="n">
-        <v>514347000</v>
+        <v>254254000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104"/>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>284439.04901686</v>
+        <v>209274.719885945</v>
       </c>
       <c r="E104" t="n">
-        <v>962110000</v>
+        <v>707868000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105"/>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" t="n">
         <v>2015</v>
       </c>
       <c r="D105" t="n">
-        <v>280541.615268963</v>
+        <v>222570.281632924</v>
       </c>
       <c r="E105" t="n">
-        <v>948927000</v>
+        <v>752840000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106"/>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>398260.197319437</v>
+        <v>145327.597101287</v>
       </c>
       <c r="E106" t="n">
-        <v>1347108000</v>
+        <v>491568000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107"/>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
       <c r="C107" t="n">
         <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>60215.5435715832</v>
+        <v>258208.016117222</v>
       </c>
       <c r="E107" t="n">
-        <v>203678000</v>
+        <v>873384000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108"/>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>328537.138622418</v>
+        <v>173349.918105188</v>
       </c>
       <c r="E108" t="n">
-        <v>1111271000</v>
+        <v>586353000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109"/>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
       <c r="C109" t="n">
         <v>2015</v>
       </c>
       <c r="D109" t="n">
-        <v>196809.022094844</v>
+        <v>148759.98774174</v>
       </c>
       <c r="E109" t="n">
-        <v>665703000</v>
+        <v>503178000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110"/>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>115654.417412091</v>
+        <v>345193.545916397</v>
       </c>
       <c r="E110" t="n">
-        <v>391199000</v>
+        <v>1167611000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111"/>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" t="n">
         <v>2015</v>
       </c>
       <c r="D111" t="n">
-        <v>105878.460365765</v>
+        <v>863351.789868687</v>
       </c>
       <c r="E111" t="n">
-        <v>358132000</v>
+        <v>2920272000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112"/>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>75167.8768214992</v>
+        <v>152557.79051239</v>
       </c>
       <c r="E112" t="n">
-        <v>254254000</v>
+        <v>516024000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113"/>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
       <c r="C113" t="n">
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>145327.597101287</v>
+        <v>242606.455490353</v>
       </c>
       <c r="E113" t="n">
-        <v>491568000</v>
+        <v>820612000</v>
       </c>
     </row>
   </sheetData>
@@ -2546,895 +3106,1234 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>200164.841746849</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>116678.81306835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>114455.889276312</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>265939.320823379</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>135462.652149468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>112851.446209495</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>171916.651109072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>630653.147258049</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>117074.380568515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>309191.581865428</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33868.9150870695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>152650.030467586</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>776127.086595945</v>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>129209.847494381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>160311.268284699</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>127421.220158055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>588288.695784757</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>553847.419950063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>148759.98774174</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>79243.5820212648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>225065.195036436</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>93380.24207764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>863351.789868687</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>164123.261817688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>181836.880905832</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>60215.5435715832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1378548.89474649</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>405949.521020344</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>258513.708789249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1378548.89474649</v>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31004.4505810106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>31004.4505810106</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61709.4169485174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>45327.6600339513</v>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>43183.9679982992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>106397.31011374</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>152062.000753214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>154661.571028968</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55087.6524726471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>171872.304976766</v>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>239478.870599281</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>145049.990313054</v>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>403596.51524021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>204483.563751649</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>118242.457693445</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>164123.261817688</v>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45327.6600339513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>403596.51524021</v>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>106397.31011374</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>243652.137290118</v>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>86349.0149801481</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2385375.20466786</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31924.7806467926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>352962.988296336</v>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>154661.571028968</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>85402.6685167468</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>994216.043738948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>205037.299123705</v>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>677961.60120165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>87403.2703654929</v>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>284439.04901686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1144081.72837951</v>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>243652.137290118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>206161.917038975</v>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>280541.615268963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>173349.918105188</v>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2385375.20466786</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="n">
-        <v>345193.545916397</v>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100331.054855218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="n">
-        <v>138546.186549117</v>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>772268.677444477</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="n">
-        <v>204442.765309928</v>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>764237.001602171</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="n">
-        <v>258208.016117222</v>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>138546.186549117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="n">
-        <v>152650.030467586</v>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>200164.841746849</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="n">
-        <v>79243.5820212648</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>101276.810036855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="n">
-        <v>93380.24207764</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>171872.304976766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="n">
-        <v>258513.708789249</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="n">
-        <v>61709.4169485174</v>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>352962.988296336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="n">
-        <v>118242.457693445</v>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>149258.142627973</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="n">
-        <v>101276.810036855</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>267219.4458426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="n">
-        <v>159720.282161507</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>85402.6685167468</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="n">
-        <v>96977.6003302693</v>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>424226.631629651</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="n">
-        <v>43183.9679982992</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>205037.299123705</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="n">
-        <v>86349.0149801481</v>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>225065.195036436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="n">
-        <v>35446.1591927382</v>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>478340.443036867</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="n">
-        <v>81175.8908262602</v>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>265939.320823379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>35446.1591927382</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="n">
-        <v>141672.293235779</v>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>398260.197319437</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="n">
-        <v>168375.464624029</v>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="n">
+        <v>328537.138622418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="n">
-        <v>222570.281632924</v>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>337980.20403557</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>114455.889276312</v>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>366851.3100118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>127421.220158055</v>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>360837.087548516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="n">
-        <v>553847.419950063</v>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v>134443.578029086</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>994216.043738948</v>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39317.8721838981</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="n">
-        <v>366851.3100118</v>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>87403.2703654929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="n">
-        <v>39317.8721838981</v>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>81175.8908262602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="n">
-        <v>622058.866817226</v>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>145049.990313054</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="n">
-        <v>165280.991511746</v>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>196809.022094844</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="n">
-        <v>261698.056729672</v>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>286792.94171964</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="n">
-        <v>504013.010310336</v>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65040.9940481952</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="n">
-        <v>128059.213181492</v>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="n">
+        <v>622058.866817226</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="n">
-        <v>203147.858246605</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="n">
-        <v>152557.79051239</v>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n">
+        <v>112851.446209495</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="n">
-        <v>116678.81306835</v>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>204483.563751649</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="n">
-        <v>117074.380568515</v>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="n">
+        <v>181836.880905832</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="n">
-        <v>129209.847494381</v>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="n">
+        <v>159720.282161507</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="n">
-        <v>31924.7806467926</v>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72385.3048397646</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="n">
-        <v>100331.054855218</v>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="n">
+        <v>630653.147258049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="n">
-        <v>360837.087548516</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="n">
+        <v>366285.45336358</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="n">
-        <v>72385.3048397646</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="n">
+        <v>204442.765309928</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="n">
-        <v>304687.493027591</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1144081.72837951</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="n">
-        <v>135462.652149468</v>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1057845.6482163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n">
-        <v>171916.651109072</v>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="n">
+        <v>115654.417412091</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n">
-        <v>33868.9150870695</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="n">
-        <v>134443.578029086</v>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="n">
+        <v>165280.991511746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n">
-        <v>65040.9940481952</v>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>261698.056729672</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n">
-        <v>97016.9205675802</v>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="n">
+        <v>309191.581865428</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n">
-        <v>196096.823210016</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n">
-        <v>37052.6717457287</v>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>776127.086595945</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n">
-        <v>242606.455490353</v>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>128059.213181492</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n">
-        <v>55087.6524726471</v>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="n">
+        <v>405949.521020344</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n">
-        <v>239478.870599281</v>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="n">
+        <v>160311.268284699</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n">
-        <v>677961.60120165</v>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>141672.293235779</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n">
-        <v>772268.677444477</v>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>96977.6003302693</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="n">
-        <v>764237.001602171</v>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>97016.9205675802</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="n">
-        <v>424226.631629651</v>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>504013.010310336</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="n">
-        <v>478340.443036867</v>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>168375.464624029</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="n">
-        <v>337980.20403557</v>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>105878.460365765</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="n">
-        <v>366285.45336358</v>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>235586.167105496</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1057845.6482163</v>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>196096.823210016</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="n">
-        <v>235586.167105496</v>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="n">
+        <v>37052.6717457287</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="n">
-        <v>209274.719885945</v>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="n">
+        <v>304687.493027591</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="n">
-        <v>149258.142627973</v>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>203147.858246605</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="n">
-        <v>267219.4458426</v>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="n">
+        <v>206161.917038975</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="n">
-        <v>286792.94171964</v>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>588288.695784757</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="n">
-        <v>152062.000753214</v>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v>75167.8768214992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="n">
-        <v>284439.04901686</v>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="n">
+        <v>209274.719885945</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="n">
-        <v>280541.615268963</v>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>222570.281632924</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="n">
-        <v>398260.197319437</v>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>145327.597101287</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="n">
-        <v>60215.5435715832</v>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>258208.016117222</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="n">
-        <v>328537.138622418</v>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>173349.918105188</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="n">
-        <v>196809.022094844</v>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="n">
+        <v>148759.98774174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="n">
-        <v>115654.417412091</v>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>345193.545916397</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="n">
-        <v>105878.460365765</v>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>863351.789868687</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" t="n">
-        <v>75167.8768214992</v>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="n">
+        <v>152557.79051239</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="n">
-        <v>145327.597101287</v>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>242606.455490353</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
+++ b/user-data/uganda-igf-resources/uganda-igf-resources.xlsx
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 29</t>
+    <t xml:space="preserve">Source: 30</t>
   </si>
   <si>
     <t xml:space="preserve"/>
